--- a/Modelo_Github_Completo.xlsx
+++ b/Modelo_Github_Completo.xlsx
@@ -831,264 +831,222 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>23
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>27
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>30
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>31
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
@@ -1149,264 +1107,222 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>4
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>15
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>16
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>18
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>19
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>22
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>23
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>27
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>30
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>31
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
@@ -1470,256 +1386,221 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>1
-06:30-18:30
-Joice
-Cibele</t>
+Joice</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>2
-06:30-18:30
-Joice
 Cibele</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>3
-06:30-18:30
-Joice
-Cibele</t>
+Maria</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>4
-06:30-18:30
-Joice
-Cibele</t>
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>5
-06:30-18:30
-Joice
-Cibele</t>
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>6
-06:30-18:30
-Joice
-Cibele</t>
+Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>7
-06:30-18:30
-Joice
-Cibele</t>
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>20
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>22
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>27
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>28
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>29
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1781,256 +1662,221 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>1
-08:00-17:00
-Gustavo
-Luciana</t>
+Joice</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>2
-08:00-17:00
-Gustavo
-Luciana</t>
+Cibele</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>3
-08:00-17:00
-Gustavo
-Luciana</t>
+Maria</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>4
-08:00-17:00
-Gustavo
-Luciana</t>
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>5
-08:00-17:00
-Gustavo
-Luciana</t>
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>6
-08:00-17:00
-Gustavo
 Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>7
-08:00-17:00
-Gustavo
-Luciana</t>
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>9
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>12
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>19
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>20
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>22
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>24
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>27
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>28
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>29
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2089,266 +1935,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>25
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2407,266 +2211,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>25
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>31
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2679,7 +2441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2725,275 +2487,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>22
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>26
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>29
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>31
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3006,7 +2717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3052,275 +2763,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>10
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>14
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>15
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>16
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>17
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>18
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>22
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>26
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>28
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>29
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>31
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3379,259 +3039,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>19
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>23
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>26
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>28
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3690,259 +3315,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>19
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>23
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>26
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>28
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4001,266 +3591,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>24
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>27
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>31
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4319,266 +3867,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>24
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>27
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>31
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4637,266 +4143,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>24
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>27
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>31
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4909,7 +4373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4955,268 +4419,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>28
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>30
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5229,7 +4649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5275,268 +4695,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>28
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>30
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5595,266 +4971,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>19
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>23
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>26
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>28
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5913,266 +5247,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>12
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>19
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>23
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>26
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>27
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>28
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6231,266 +5523,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>16
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>17
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>24
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>25
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>26
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>27
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>30
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>31
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6549,245 +5799,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>28
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6846,245 +6075,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>28
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7097,7 +6305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7143,275 +6351,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>28
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>30
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>31
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7424,7 +6581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7470,275 +6627,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3
+Maria</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>8
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>21
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>26
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>28
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>30
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>31
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7797,259 +6903,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23
-06:30-18:30
-Joice
-Cibele</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24
-06:30-18:30
-Joice
-Cibele</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>25
-06:30-18:30
-Joice
-Cibele</t>
+          <t>6
+Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26
-06:30-18:30
-Joice
-Cibele</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27
-06:30-18:30
-Joice
-Cibele</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28
-06:30-18:30
-Joice
+          <t>2
 Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29
-06:30-18:30
-Joice
-Cibele</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30
-06:30-18:30
-Joice
-Cibele</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8108,259 +7179,224 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1
+Joice</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2
+Cibele</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>5
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>10
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>17
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>4
+Caio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>5
+Gustavo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>25
-08:00-17:00
-Gustavo
+          <t>6
 Luciana</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>7
+*Férias - Ana</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>1
+Joice</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>2
+Cibele</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29
-08:00-17:00
-Gustavo
-Luciana</t>
+          <t>3
+Maria</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30
-08:00-17:00
-Gustavo
-Luciana</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+          <t>4
+Caio</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5
+Gustavo</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6
+Luciana</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7
+*Férias - Ana</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
